--- a/DOCUMENTOS/prazo e lista de atividades Dani.xlsx
+++ b/DOCUMENTOS/prazo e lista de atividades Dani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>1 INTRODUÇAO</t>
   </si>
@@ -123,9 +123,6 @@
     <t>pegar texto automação leandro e colocar referencia, VOU IMPRIMIR NESTA DATA 20/10 E VERIFICAR AKELE PARTE DA LEI SOBRE TRABALHO . FEITO</t>
   </si>
   <si>
-    <t>pegar texto botoeiras Leandro, portas Adam e motor nilson</t>
-  </si>
-  <si>
     <t>até 23/10/2016</t>
   </si>
   <si>
@@ -141,10 +138,25 @@
     <t>até20/11/2016</t>
   </si>
   <si>
-    <t>chapmman cap 8, fitz, kosow , problemas para dimensionamento do motor</t>
-  </si>
-  <si>
-    <t>tirar duvidas com o professor 29/10 , sobre referencia bibliografica, mandar email p fessor verificr plagio, reunir com pericles</t>
+    <t>imprimir transmissoes e engrenagens  , TERMINAR MOTOR, TERMINAR BOTOEIRAS</t>
+  </si>
+  <si>
+    <t>chapmman cap 8, fitz, kosow , problemas para dimensionamento do motor????????????????WW</t>
+  </si>
+  <si>
+    <t>tirar duvidas com o professor 29/10 , sobre referencia bibliografica, mandar email p fessor verificr plagio, reunir com pericles????????????????</t>
+  </si>
+  <si>
+    <t>pegar texto botoeiras Leandro OK , portas Adam e motor nilson??????????????????W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incluir parte do Adam na monografia  SENSORES / PORTAS / MCE SENSORES/ INTERFACE JAVA X ARDUINO/ CIRCUITO ELETRONICO DOS MOTORES </t>
+  </si>
+  <si>
+    <t>CONCLUIR MONOGRAFIA EM ESTÁGIO AVANÇADO  capitulo que falta colocar EM CONSTRUÇÃO -TRES CÓPIAS EM ESPIRAL, CD C ARQUIVO WORD</t>
+  </si>
+  <si>
+    <t>levar para  o Pericles</t>
   </si>
 </sst>
 </file>
@@ -334,7 +346,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -393,41 +405,43 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -723,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,7 +757,7 @@
       <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -751,7 +765,7 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -759,25 +773,28 @@
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="37" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="23" t="s">
         <v>33</v>
       </c>
@@ -786,7 +803,7 @@
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -795,7 +812,7 @@
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="C8" t="s">
         <v>32</v>
       </c>
@@ -805,7 +822,7 @@
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="23" t="s">
         <v>34</v>
       </c>
@@ -816,9 +833,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="2"/>
@@ -827,10 +844,10 @@
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="2"/>
@@ -839,9 +856,9 @@
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="36" t="s">
-        <v>35</v>
+      <c r="B12" s="29"/>
+      <c r="C12" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -849,121 +866,136 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.25">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" ht="23.25">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23.25">
+      <c r="A17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="23.25">
-      <c r="A16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B18" s="31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="32"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="32"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="30"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="21" t="s">
+      <c r="B22" s="32"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23" s="33"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="33"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="35"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="35"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="34"/>
-    </row>
-    <row r="28" spans="1:2" ht="23.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" s="36"/>
+    </row>
+    <row r="29" spans="1:2" ht="23.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75">
-      <c r="A30" s="1"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="_Toc463899391" display="_Toc463899391"/>
@@ -977,20 +1009,20 @@
     <hyperlink ref="A11" location="_Toc463899400" display="_Toc463899400"/>
     <hyperlink ref="A12" location="_Toc463899401" display="_Toc463899401"/>
     <hyperlink ref="A13" location="_Toc463899402" display="_Toc463899402"/>
-    <hyperlink ref="A14" location="_Toc463899403" display="_Toc463899403"/>
-    <hyperlink ref="A15" location="_Toc463899404" display="_Toc463899404"/>
-    <hyperlink ref="A16" location="_Toc463899405" display="_Toc463899405"/>
-    <hyperlink ref="A17" location="_Toc463899406" display="_Toc463899406"/>
-    <hyperlink ref="A18" location="_Toc463899407" display="_Toc463899407"/>
-    <hyperlink ref="A19" location="_Toc463899408" display="_Toc463899408"/>
-    <hyperlink ref="A20" location="_Toc463899409" display="_Toc463899409"/>
-    <hyperlink ref="A21" location="_Toc463899410" display="_Toc463899410"/>
-    <hyperlink ref="A22" location="_Toc463899411" display="_Toc463899411"/>
-    <hyperlink ref="A23" location="_Toc463899412" display="_Toc463899412"/>
-    <hyperlink ref="A24" location="_Toc463899413" display="_Toc463899413"/>
-    <hyperlink ref="A25" location="_Toc463899414" display="_Toc463899414"/>
-    <hyperlink ref="A26" location="_Toc463899415" display="_Toc463899415"/>
-    <hyperlink ref="A27" location="_Toc463899416" display="_Toc463899416"/>
+    <hyperlink ref="A15" location="_Toc463899403" display="_Toc463899403"/>
+    <hyperlink ref="A16" location="_Toc463899404" display="_Toc463899404"/>
+    <hyperlink ref="A17" location="_Toc463899405" display="_Toc463899405"/>
+    <hyperlink ref="A18" location="_Toc463899406" display="_Toc463899406"/>
+    <hyperlink ref="A19" location="_Toc463899407" display="_Toc463899407"/>
+    <hyperlink ref="A20" location="_Toc463899408" display="_Toc463899408"/>
+    <hyperlink ref="A21" location="_Toc463899409" display="_Toc463899409"/>
+    <hyperlink ref="A22" location="_Toc463899410" display="_Toc463899410"/>
+    <hyperlink ref="A23" location="_Toc463899411" display="_Toc463899411"/>
+    <hyperlink ref="A24" location="_Toc463899412" display="_Toc463899412"/>
+    <hyperlink ref="A25" location="_Toc463899413" display="_Toc463899413"/>
+    <hyperlink ref="A26" location="_Toc463899414" display="_Toc463899414"/>
+    <hyperlink ref="A27" location="_Toc463899415" display="_Toc463899415"/>
+    <hyperlink ref="A28" location="_Toc463899416" display="_Toc463899416"/>
     <hyperlink ref="A3" location="_Toc463899392" display="_Toc463899392"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DOCUMENTOS/prazo e lista de atividades Dani.xlsx
+++ b/DOCUMENTOS/prazo e lista de atividades Dani.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>1 INTRODUÇAO</t>
   </si>
@@ -117,9 +117,6 @@
     <t>pegar meta 16/10 leandro e arrumar .FEITOLembrar de falar com leandro p ele arrumar, não selecionar</t>
   </si>
   <si>
-    <t>sabado 22/ 10 ver citação e bibliografia com professor de TCC, leandro falou que citação é no final da frase,mas não arrumou   FEITO</t>
-  </si>
-  <si>
     <t>pegar texto automação leandro e colocar referencia, VOU IMPRIMIR NESTA DATA 20/10 E VERIFICAR AKELE PARTE DA LEI SOBRE TRABALHO . FEITO</t>
   </si>
   <si>
@@ -150,13 +147,37 @@
     <t>pegar texto botoeiras Leandro OK , portas Adam e motor nilson??????????????????W</t>
   </si>
   <si>
-    <t xml:space="preserve">incluir parte do Adam na monografia  SENSORES / PORTAS / MCE SENSORES/ INTERFACE JAVA X ARDUINO/ CIRCUITO ELETRONICO DOS MOTORES </t>
-  </si>
-  <si>
     <t>CONCLUIR MONOGRAFIA EM ESTÁGIO AVANÇADO  capitulo que falta colocar EM CONSTRUÇÃO -TRES CÓPIAS EM ESPIRAL, CD C ARQUIVO WORD</t>
   </si>
   <si>
-    <t>levar para  o Pericles</t>
+    <t>partir para movimentação da cabine e comunicação serial, q é a 1ª conexao do arduino a um software de interface grafica</t>
+  </si>
+  <si>
+    <t>ler e escrever sinais por aplicativo desktop</t>
+  </si>
+  <si>
+    <t>em seguida por ethernet e dando certo por wifi . Daí é possivel utilizar o mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo final das portas / print do circuito , com as simulações dos sensores e dos botoes abree fecha da cabine / algo sobre botoes da cabine / doc sobre sensores </t>
+  </si>
+  <si>
+    <t>levar para  o Pericles HOJE</t>
+  </si>
+  <si>
+    <t>incluir parte do Adam na monografia  SENSORES / PORTAS / MCE SENSORES/ INTERFACE JAVA X ARDUINO/ CIRCUITO ELETRONICO DOS MOTORES  FEITO!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>SITUAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabado 22/ 10 ver citação e bibliografia com professor de TCC, leandro falou que citação é no final da frase,mas não arrumou   </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -174,16 +195,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -192,28 +233,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -225,55 +244,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor indexed="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,107 +360,109 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="16" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +514,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -563,7 +584,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,15 +760,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="132.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="147.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -757,64 +778,85 @@
       <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>30</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="33" t="s">
         <v>28</v>
       </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="37" t="s">
-        <v>40</v>
+      <c r="B4" s="34"/>
+      <c r="C4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="23" t="s">
-        <v>33</v>
+      <c r="B6" s="34"/>
+      <c r="C6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="25" t="s">
         <v>31</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="25" t="s">
         <v>32</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -822,9 +864,12 @@
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="23" t="s">
-        <v>34</v>
+      <c r="B9" s="35"/>
+      <c r="C9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -833,170 +878,212 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="B11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="25"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>44</v>
+      <c r="B13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="25"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="23.25">
       <c r="A16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25">
+        <v>37</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" ht="23.25">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="32"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="39"/>
+      <c r="C19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="32"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="39"/>
+      <c r="C20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="32"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="39"/>
+      <c r="C21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="32"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="39"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="40"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="35"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="31"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="35"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="31"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="35"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="31"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="36"/>
-    </row>
-    <row r="29" spans="1:2" ht="23.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" ht="23.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" ht="15.75">
+    <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B28"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" location="_Toc463899391" display="_Toc463899391"/>
     <hyperlink ref="A4" location="_Toc463899393" display="_Toc463899393"/>
@@ -1038,6 +1125,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1050,6 +1138,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>